--- a/Resume - workforce/resume info.xlsx
+++ b/Resume - workforce/resume info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\awtor\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\awtor\Antonius-Personal\Resume - workforce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A717A78C-694A-408D-B733-02AAFB797CCF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6554BFF-2C05-455C-A2BF-28DA9884C541}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13335" yWindow="375" windowWidth="14160" windowHeight="14790" xr2:uid="{E4E6E32F-40A2-4731-86CC-B95999A7A867}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E4E6E32F-40A2-4731-86CC-B95999A7A867}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>Resume Information</t>
   </si>
@@ -124,14 +124,69 @@
   </si>
   <si>
     <t>A tutor and exam proctor for PHY 232C, an online course taught at MSU. Assisting students in the understanding of concepts and problems via online and in person.</t>
+  </si>
+  <si>
+    <t>ACT Tutor</t>
+  </si>
+  <si>
+    <t>StudyPoint</t>
+  </si>
+  <si>
+    <t>Tutor for ACT subjects</t>
+  </si>
+  <si>
+    <t>Cincinati, OH</t>
+  </si>
+  <si>
+    <t>Helpdesk Specialist</t>
+  </si>
+  <si>
+    <t>Casey's General Stores</t>
+  </si>
+  <si>
+    <t>Des Moines, IA</t>
+  </si>
+  <si>
+    <t>Computer, register, and other Casey’s hardware/software troubleshooting and repair.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Average Hours worked (Approx per week)</t>
+  </si>
+  <si>
+    <t>10 to 20</t>
+  </si>
+  <si>
+    <t>1 to 5</t>
+  </si>
+  <si>
+    <t>20 to 40</t>
+  </si>
+  <si>
+    <t>LigeGuard and Swim Instructor</t>
+  </si>
+  <si>
+    <t>Walnut Creek YMCA</t>
+  </si>
+  <si>
+    <t>West Des Moines, IA</t>
+  </si>
+  <si>
+    <t>Lifeguard and Swim Instructor.</t>
+  </si>
+  <si>
+    <t>2 to 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -171,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -179,31 +234,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -520,218 +593,314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2793F8E-5B81-4A99-B229-73271446BE51}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="67" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="27.7109375" style="2"/>
+    <col min="1" max="1" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" style="6"/>
+    <col min="8" max="16384" width="27.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="G4" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>43696</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>43635</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>43497</v>
+      </c>
+      <c r="B7" s="5">
+        <v>43727</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>42856</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B8" s="5">
         <v>43313</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="G8" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>43221</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B9" s="5">
         <v>43313</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="G9" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>42491</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B10" s="5">
         <v>43313</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="G10" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>42491</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B11" s="5">
         <v>42583</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="G11" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>41487</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B12" s="5">
         <v>42125</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="G12" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>41395</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B13" s="5">
         <v>41487</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="G13" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>40664</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B14" s="5">
         <v>41395</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
